--- a/Digest/SingleVM/Test/Node_Determination.xlsx
+++ b/Digest/SingleVM/Test/Node_Determination.xlsx
@@ -25,10 +25,10 @@
     <t>Mig_ID</t>
   </si>
   <si>
-    <t>id_lte_origin</t>
-  </si>
-  <si>
-    <t>id_lte_target</t>
+    <t>id_edge_origin</t>
+  </si>
+  <si>
+    <t>id_edge_target</t>
   </si>
   <si>
     <t>dist_source_init</t>

--- a/Digest/SingleVM/Test/Node_Determination.xlsx
+++ b/Digest/SingleVM/Test/Node_Determination.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>INDEX</t>
   </si>
@@ -61,28 +61,13 @@
     <t>109</t>
   </si>
   <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>157</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
     <t>319</t>
   </si>
   <si>
     <t>203</t>
-  </si>
-  <si>
-    <t>45</t>
   </si>
 </sst>
 </file>
@@ -440,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -527,16 +512,16 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>968.3670657012597</v>
+        <v>989.6019462481942</v>
       </c>
       <c r="G3">
-        <v>883.0904949570352</v>
+        <v>812.2125776925888</v>
       </c>
       <c r="H3">
         <v>42</v>
       </c>
       <c r="I3">
-        <v>45.71112147080476</v>
+        <v>44.69821170640597</v>
       </c>
       <c r="J3">
         <v>180</v>
@@ -559,16 +544,16 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>1779.718413392205</v>
+        <v>1844.811300619412</v>
       </c>
       <c r="G4">
-        <v>1761.759580427504</v>
+        <v>1718.011399860149</v>
       </c>
       <c r="H4">
         <v>48</v>
       </c>
       <c r="I4">
-        <v>5.747579001537062</v>
+        <v>3.652144105301716</v>
       </c>
       <c r="J4">
         <v>180</v>
@@ -591,16 +576,16 @@
         <v>15</v>
       </c>
       <c r="F5">
-        <v>1522.551605582242</v>
+        <v>808.7352899127407</v>
       </c>
       <c r="G5">
-        <v>1139.830723277862</v>
+        <v>916.1502479863905</v>
       </c>
       <c r="H5">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>27.9784449151359</v>
+        <v>351.1349375255663</v>
       </c>
       <c r="J5">
         <v>180</v>
@@ -620,19 +605,19 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>526.8103705905825</v>
+        <v>2758.20689773608</v>
       </c>
       <c r="G6">
-        <v>561.6982722025537</v>
+        <v>480.3342300267189</v>
       </c>
       <c r="H6">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="I6">
-        <v>325.3582628658728</v>
+        <v>346.72417677338</v>
       </c>
       <c r="J6">
         <v>180</v>
@@ -649,216 +634,24 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>288.7996066275143</v>
+        <v>1494.483495789896</v>
       </c>
       <c r="G7">
-        <v>182.9692587630414</v>
+        <v>1515.864334615253</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="I7">
-        <v>45.96066236889429</v>
+        <v>285.8080842396613</v>
       </c>
       <c r="J7">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8">
-        <v>687.6475916230419</v>
-      </c>
-      <c r="G8">
-        <v>916.1502479863905</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>351.1349375255663</v>
-      </c>
-      <c r="J8">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9">
-        <v>923.0041015486039</v>
-      </c>
-      <c r="G9">
-        <v>570.3028562693744</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>29.87482133416661</v>
-      </c>
-      <c r="J9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10">
-        <v>589.6532168377653</v>
-      </c>
-      <c r="G10">
-        <v>655.4290553705785</v>
-      </c>
-      <c r="H10">
-        <v>342</v>
-      </c>
-      <c r="I10">
-        <v>256.3225174013058</v>
-      </c>
-      <c r="J10">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11">
-        <v>1002.873742848912</v>
-      </c>
-      <c r="G11">
-        <v>612.4266367170083</v>
-      </c>
-      <c r="H11">
-        <v>342</v>
-      </c>
-      <c r="I11">
-        <v>345.8541235152802</v>
-      </c>
-      <c r="J11">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12">
-        <v>1077.844426335002</v>
-      </c>
-      <c r="G12">
-        <v>727.9789992554096</v>
-      </c>
-      <c r="H12">
-        <v>36</v>
-      </c>
-      <c r="I12">
-        <v>312.4399644541753</v>
-      </c>
-      <c r="J12">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13">
-        <v>1409.489617607861</v>
-      </c>
-      <c r="G13">
-        <v>1173.617190361724</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <v>24.22297086863009</v>
-      </c>
-      <c r="J13">
         <v>180</v>
       </c>
     </row>
